--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICTCoC\Documents\UiPath\RPA06_AirportSKD_배혜빈\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9EA1C4-FBA7-43BF-82D4-75AEB8AACB3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6EC8E1-E90E-4B2A-AB70-C1A64D42AE70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38505" yWindow="-1545" windowWidth="38625" windowHeight="21105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICTCoC\Documents\UiPath\RPA06_AirportSKD_배혜빈\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UiPath\RPA_REF_AirportSKD\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6EC8E1-E90E-4B2A-AB70-C1A64D42AE70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38505" yWindow="-1545" windowWidth="38625" windowHeight="21105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38505" yWindow="-1545" windowWidth="38625" windowHeight="21105"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -222,9 +221,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Receive</t>
-  </si>
-  <si>
     <t>rpa.sj.jeong@gmail.com</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -233,10 +229,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>MailTitle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[SKD] {0} Airport SKD_{1} 처리결과</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -246,6 +238,32 @@
   </si>
   <si>
     <t>MailFail</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+    &lt;span&gt;안녕하십니까&lt;/span&gt;
+&lt;/div&gt;
+&lt;div&gt;
+    &lt;span&gt;&lt;br&gt;&lt;/span&gt;
+&lt;/div&gt;
+&lt;div&gt;
+    &lt;span&gt;{0}, Airport SKD 과제 처리 실패로 확인 바랍니다. &lt;/span&gt;
+&lt;div&gt;
+&lt;div&gt;
+    &lt;span&gt;&lt;br&gt;&lt;/span&gt;
+&lt;/div&gt;
+&lt;div&gt;
+    &lt;span&gt;감사합니다.&lt;/span&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Receive</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MailTitle</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -266,29 +284,11 @@
 &lt;/div&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
-  <si>
-    <t>&lt;div&gt;
-    &lt;span&gt;안녕하십니까&lt;/span&gt;
-&lt;/div&gt;
-&lt;div&gt;
-    &lt;span&gt;&lt;br&gt;&lt;/span&gt;
-&lt;/div&gt;
-&lt;div&gt;
-    &lt;span&gt;{0}, Airport SKD 과제 처리 실패로 확인 바랍니다. &lt;/span&gt;
-&lt;div&gt;
-&lt;div&gt;
-    &lt;span&gt;&lt;br&gt;&lt;/span&gt;
-&lt;/div&gt;
-&lt;div&gt;
-    &lt;span&gt;감사합니다.&lt;/span&gt;
-&lt;/div&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -417,7 +417,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{402D855B-E31E-4A60-907C-14EE3E814244}"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -728,11 +728,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -859,7 +859,7 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>55</v>
@@ -875,37 +875,37 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="212.25" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="213.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" s="4"/>
     </row>
@@ -1937,7 +1937,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{FB421151-E74A-4913-B0B1-E0DA3A0B843A}"/>
+    <hyperlink ref="B14" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1945,7 +1945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3108,7 +3108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
